--- a/biology/Botanique/Liste_rouge_des_plantes_en_Espagne/Liste_rouge_des_plantes_en_Espagne.xlsx
+++ b/biology/Botanique/Liste_rouge_des_plantes_en_Espagne/Liste_rouge_des_plantes_en_Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste rouge des plantes d'Espagne recense les plantes disparues ou menacées de disparition d'Espagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces éteintes EX et EW</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adoxa moschatellina
 Aeonium mascaense</t>
@@ -542,9 +556,11 @@
           <t>Espèces en danger critique d'extinction (CR)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adenocarpus gibbsianus : endémique présente en Andalousie, au sud-ouest de Huelva, menacée par l'évolution et la gestion des forêts et par le vieillissement des populations[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adenocarpus gibbsianus : endémique présente en Andalousie, au sud-ouest de Huelva, menacée par l'évolution et la gestion des forêts et par le vieillissement des populations.
 Agrostis barceloi
 Aichryson pachycaulon subsp. pachycaulon
 Allium rouyi
@@ -594,7 +610,9 @@
           <t>Espèces en danger (EN)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adenocarpus ombriosus
 Aichryson bethencourtianum
@@ -647,7 +665,9 @@
           <t>Espèces vulnérables (VU)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Abies pinsapo
 Achillea santolinoides
